--- a/App2/europePMC/csv/europePMC_climate.xlsx
+++ b/App2/europePMC/csv/europePMC_climate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t xml:space="preserve">Keyword : </t>
   </si>
@@ -31,7 +31,79 @@
     <t xml:space="preserve">Date : </t>
   </si>
   <si>
-    <t>2018-07-04T16:34:38.085804</t>
+    <t>2018-07-06T15:25:58.681132</t>
+  </si>
+  <si>
+    <t>https://europepmc.org/abstract/MED/29712797;jsessionid=6803BB01A244CC2D813CEEBE4575E2FF</t>
+  </si>
+  <si>
+    <t>S.No</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Journal name</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Doi number</t>
+  </si>
+  <si>
+    <t>Author name</t>
+  </si>
+  <si>
+    <t>E-mail</t>
+  </si>
+  <si>
+    <t>Affiliation</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Climate risk index for Italy.</t>
+  </si>
+  <si>
+    <t>Philosophical Transactions. Series A, Mathematical, Physical, and Engineering Sciences</t>
+  </si>
+  <si>
+    <t>10.1098/rsta.2017.0305</t>
+  </si>
+  <si>
+    <t>Jaroslav Mysiak</t>
+  </si>
+  <si>
+    <t>Centro Euro-Mediterraneo sui Cambiamenti Climatici</t>
+  </si>
+  <si>
+    <t>Cannot get email</t>
+  </si>
+  <si>
+    <t>Silvia Torresan</t>
+  </si>
+  <si>
+    <t>Centro Euro-Mediterraneo sui Cambiamenti Climatici and Università Ca' Foscari, Venezia Porto Marghera, Italy.</t>
+  </si>
+  <si>
+    <t>Francesco Bosello</t>
+  </si>
+  <si>
+    <t>Malcolm Mistry</t>
+  </si>
+  <si>
+    <t>Mattia Amadio</t>
+  </si>
+  <si>
+    <t>Sepehr Marzi</t>
+  </si>
+  <si>
+    <t>Elisa Furlan</t>
+  </si>
+  <si>
+    <t>Anna Sperotto</t>
   </si>
 </sst>
 </file>
@@ -376,13 +448,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -390,7 +462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -398,17 +470,152 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="A4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/App2/europePMC/csv/europePMC_climate.xlsx
+++ b/App2/europePMC/csv/europePMC_climate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="215">
   <si>
     <t xml:space="preserve">Keyword : </t>
   </si>
@@ -31,10 +31,10 @@
     <t xml:space="preserve">Date : </t>
   </si>
   <si>
-    <t>2018-07-06T15:25:58.681132</t>
-  </si>
-  <si>
-    <t>https://europepmc.org/abstract/MED/29712797;jsessionid=6803BB01A244CC2D813CEEBE4575E2FF</t>
+    <t>2018-07-11T17:14:19.157037</t>
+  </si>
+  <si>
+    <t>https://europepmc.org/abstract/MED/29564970;jsessionid=210470BC967ED6897DBA0B04239E8DD2</t>
   </si>
   <si>
     <t>S.No</t>
@@ -64,46 +64,601 @@
     <t>1</t>
   </si>
   <si>
-    <t>Climate risk index for Italy.</t>
-  </si>
-  <si>
-    <t>Philosophical Transactions. Series A, Mathematical, Physical, and Engineering Sciences</t>
-  </si>
-  <si>
-    <t>10.1098/rsta.2017.0305</t>
-  </si>
-  <si>
-    <t>Jaroslav Mysiak</t>
-  </si>
-  <si>
-    <t>Centro Euro-Mediterraneo sui Cambiamenti Climatici</t>
+    <t>Sámi youth health, the role of climate change, and unique health-seeking behaviour.</t>
+  </si>
+  <si>
+    <t>International Journal of Circumpolar Health</t>
+  </si>
+  <si>
+    <t>10.1080/22423982.2018.1454785</t>
+  </si>
+  <si>
+    <t>Emilie Kowalczewski</t>
+  </si>
+  <si>
+    <t>a Faculty of Health , Maastricht University , Maastricht , The Netherlands.</t>
   </si>
   <si>
     <t>Cannot get email</t>
   </si>
   <si>
-    <t>Silvia Torresan</t>
-  </si>
-  <si>
-    <t>Centro Euro-Mediterraneo sui Cambiamenti Climatici and Università Ca' Foscari, Venezia Porto Marghera, Italy.</t>
-  </si>
-  <si>
-    <t>Francesco Bosello</t>
-  </si>
-  <si>
-    <t>Malcolm Mistry</t>
-  </si>
-  <si>
-    <t>Mattia Amadio</t>
-  </si>
-  <si>
-    <t>Sepehr Marzi</t>
-  </si>
-  <si>
-    <t>Elisa Furlan</t>
-  </si>
-  <si>
-    <t>Anna Sperotto</t>
+    <t>Joern Klein</t>
+  </si>
+  <si>
+    <t>b Faculty of Health and Social Sciences, Department of Nursing and Health Sciences , University College Southeast Norway , Kongsberg , Norway.</t>
+  </si>
+  <si>
+    <t>https://europepmc.org/abstract/MED/29383987;jsessionid=210470BC967ED6897DBA0B04239E8DD2</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Results of an Arctic Council survey on water and sanitation services in the Arctic.</t>
+  </si>
+  <si>
+    <t>10.1080/22423982.2017.1421368</t>
+  </si>
+  <si>
+    <t>Jonathan M Bressler</t>
+  </si>
+  <si>
+    <t>a Alaska Division of Public Health , Section of Epidemiology , Anchorage , AK , USA.</t>
+  </si>
+  <si>
+    <t>Thomas W Hennessy</t>
+  </si>
+  <si>
+    <t>c Arctic Investigations Program , National Center for Emerging and Zoonotic Infectious Diseases, CDC , Anchorage , AK , USA.</t>
+  </si>
+  <si>
+    <t>https://europepmc.org/abstract/MED/29940989;jsessionid=210470BC967ED6897DBA0B04239E8DD2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Linking molar organizational climate and strategic implementation climate to clinicians' use of evidence-based psychotherapy techniques: cross-sectional and lagged analyses from a 2-year observational study.</t>
+  </si>
+  <si>
+    <t>Implementation Science : IS</t>
+  </si>
+  <si>
+    <t>10.1186/s13012-018-0781-2</t>
+  </si>
+  <si>
+    <t>Nathaniel J Williams</t>
+  </si>
+  <si>
+    <t>School of Social Work, Boise State University, 1910 University Drive, Boise, ID, 83725, USA. natewilliams@boisestate.edu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> natewilliams@boisestate.edu.</t>
+  </si>
+  <si>
+    <t>Mark G Ehrhart</t>
+  </si>
+  <si>
+    <t>Department of Psychology, University of Central Florida, Orlando, FL, USA.</t>
+  </si>
+  <si>
+    <t>Gregory A Aarons</t>
+  </si>
+  <si>
+    <t>Department of Psychiatry, University of California, San Diego, CA, USA.</t>
+  </si>
+  <si>
+    <t>Steven C Marcus</t>
+  </si>
+  <si>
+    <t>School of Social Policy and Practice, University of Pennsylvania, Philadelphia, PA, USA.</t>
+  </si>
+  <si>
+    <t>Rinad S Beidas</t>
+  </si>
+  <si>
+    <t>Department of Psychiatry, University of Pennsylvania, Philadelphia, PA, USA.</t>
+  </si>
+  <si>
+    <t>https://europepmc.org/abstract/MED/29987011;jsessionid=210470BC967ED6897DBA0B04239E8DD2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Observing carbon cycle-climate feedbacks from space.</t>
+  </si>
+  <si>
+    <t>Proceedings of the National Academy of Sciences of the United States of America</t>
+  </si>
+  <si>
+    <t>10.1073/pnas.1716613115</t>
+  </si>
+  <si>
+    <t>Piers J Sellers</t>
+  </si>
+  <si>
+    <t>Sciences and Exploration, Goddard Space Flight Center, Greenbelt, MD 20771.</t>
+  </si>
+  <si>
+    <t>David S Schimel</t>
+  </si>
+  <si>
+    <t>Carbon and Ecosystems Group, Jet Propulsion Laboratory, California Institute of Technology, Pasadena, CA 91109; david.schimel@jpl.nasa.gov.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> david.schimel@jpl.nasa.gov.</t>
+  </si>
+  <si>
+    <t>Berrien Moore</t>
+  </si>
+  <si>
+    <t>College of Atmospheric and Geographic Sciences, University of Oklahoma, Norman, OK 73019.</t>
+  </si>
+  <si>
+    <t>Junjie Liu</t>
+  </si>
+  <si>
+    <t>Carbon and Ecosystems Group, Jet Propulsion Laboratory, California Institute of Technology, Pasadena, CA 91109.</t>
+  </si>
+  <si>
+    <t>Annmarie Eldering</t>
+  </si>
+  <si>
+    <t>https://europepmc.org/abstract/MED/29930266;jsessionid=210470BC967ED6897DBA0B04239E8DD2</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Assessing agreement among alternative climate change projections to inform conservation recommendations in the contiguous United States.</t>
+  </si>
+  <si>
+    <t>Scientific Reports</t>
+  </si>
+  <si>
+    <t>10.1038/s41598-018-27721-6</t>
+  </si>
+  <si>
+    <t>Russell Travis Belote</t>
+  </si>
+  <si>
+    <t>The Wilderness Society</t>
+  </si>
+  <si>
+    <t>Carlos Carroll</t>
+  </si>
+  <si>
+    <t>Klamath Center for Conservation Research, Orleans, CA, 95556, USA.</t>
+  </si>
+  <si>
+    <t>Sebastián Martinuzzi</t>
+  </si>
+  <si>
+    <t>Department of Forest and Wildlife Ecology, University of Wisconsin, Madison, WI, 53706, USA.</t>
+  </si>
+  <si>
+    <t>Julia Michalak</t>
+  </si>
+  <si>
+    <t>School of Environmental and Forest Science, University of Washington, Seattle, WA, 98195, USA.</t>
+  </si>
+  <si>
+    <t>John Williams</t>
+  </si>
+  <si>
+    <t>University of Wisconsin Madison</t>
+  </si>
+  <si>
+    <t>Matthew Williamson</t>
+  </si>
+  <si>
+    <t>Colorado State University</t>
+  </si>
+  <si>
+    <t>Gregory H Aplet</t>
+  </si>
+  <si>
+    <t>The Wilderness Society, Denver, CO, 80202, USA.</t>
+  </si>
+  <si>
+    <t>https://europepmc.org/abstract/MED/29969461;jsessionid=210470BC967ED6897DBA0B04239E8DD2</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Air-quality-related health impacts from climate change and from adaptation of cooling demand for buildings in the eastern United States: An interdisciplinary modeling study.</t>
+  </si>
+  <si>
+    <t>PLoS Medicine</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pmed.1002599</t>
+  </si>
+  <si>
+    <t>David Abel</t>
+  </si>
+  <si>
+    <t>Center for Sustainability and the Global Environment (SAGE), Nelson Institute for Environmental Studies, University of Wisconsin-Madison, Madison, Wisconsin, United States of America.</t>
+  </si>
+  <si>
+    <t>Tracey Holloway</t>
+  </si>
+  <si>
+    <t>Monica Harkey</t>
+  </si>
+  <si>
+    <t>Paul Meier</t>
+  </si>
+  <si>
+    <t>Wisconsin Energy Institute (WEI), University of Wisconsin-Madison, Madison, Wisconsin, United States of America.</t>
+  </si>
+  <si>
+    <t>Doug Ahl</t>
+  </si>
+  <si>
+    <t>Seventhwave, Madison, Wisconsin, United States of America.</t>
+  </si>
+  <si>
+    <t>Vijay Limaye</t>
+  </si>
+  <si>
+    <t>Jonathan Patz</t>
+  </si>
+  <si>
+    <t>https://europepmc.org/abstract/MED/29963741;jsessionid=210470BC967ED6897DBA0B04239E8DD2</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Climatic, topographic, and anthropogenic factors determine connectivity between current and future climate analogs in North America.</t>
+  </si>
+  <si>
+    <t>Global Change Biology</t>
+  </si>
+  <si>
+    <t>10.1111/gcb.14373</t>
+  </si>
+  <si>
+    <t>Sean A Parks</t>
+  </si>
+  <si>
+    <t>Aldo Leopold Wilderness Research Institute, Rocky Mountain Research Station, US Forest Service. Missoula, Montana, 59801, USA.</t>
+  </si>
+  <si>
+    <t>Solomon Z Dobrowski</t>
+  </si>
+  <si>
+    <t>Department of Forest Management, College of Forestry and Conservation, University of Montana, Missoula, Montana, 59812, USA.</t>
+  </si>
+  <si>
+    <t>David Roberts</t>
+  </si>
+  <si>
+    <t>University of Calgary</t>
+  </si>
+  <si>
+    <t>https://europepmc.org/abstract/MED/29989155;jsessionid=210470BC967ED6897DBA0B04239E8DD2</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>The role of within-class consensus on mastery goal structures in predicting socio-emotional outcomes.</t>
+  </si>
+  <si>
+    <t>The British Journal of Educational Psychology</t>
+  </si>
+  <si>
+    <t>10.1111/bjep.12237</t>
+  </si>
+  <si>
+    <t>Lisa Bardach</t>
+  </si>
+  <si>
+    <t>Faculty of Psychology, Department of Applied Psychology: Work, Education, and Economy, University of Vienna, Austria.</t>
+  </si>
+  <si>
+    <t>Marko Lüftenegger</t>
+  </si>
+  <si>
+    <t>Takuya Yanagida</t>
+  </si>
+  <si>
+    <t>Barbara Schober</t>
+  </si>
+  <si>
+    <t>Christiane Spiel</t>
+  </si>
+  <si>
+    <t>https://europepmc.org/abstract/MED/29931768;jsessionid=210470BC967ED6897DBA0B04239E8DD2</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Climate change and functional traits affect population dynamics of a long-lived seabird.</t>
+  </si>
+  <si>
+    <t>The Journal of Animal Ecology</t>
+  </si>
+  <si>
+    <t>10.1111/1365-2656.12827</t>
+  </si>
+  <si>
+    <t>stephanie jenouvrier</t>
+  </si>
+  <si>
+    <t>Centre National de la Recherche Scientifique</t>
+  </si>
+  <si>
+    <t>Marine Desprez</t>
+  </si>
+  <si>
+    <t>Biology Department, MS-50, Woods Hole Oceanographic Institution, Woods Hole, MA, USA.</t>
+  </si>
+  <si>
+    <t>Remi Fay</t>
+  </si>
+  <si>
+    <t>Centre d'Etudes Biologiques de Chizé, UMR 7372 CNRS, University of La Rochelle, Villiers en Bois, France.</t>
+  </si>
+  <si>
+    <t>Christophe Barbraud</t>
+  </si>
+  <si>
+    <t>Henri Weimerskirch</t>
+  </si>
+  <si>
+    <t>Karine Delord</t>
+  </si>
+  <si>
+    <t>Hal Caswell</t>
+  </si>
+  <si>
+    <t>https://europepmc.org/abstract/MED/29773234;jsessionid=210470BC967ED6897DBA0B04239E8DD2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Corrigendum to "Soil organic carbon pool's contribution to climate change mitigation on marginal land of a Mediterranean montane area in Italy" &lt;[J. Environ. Manag. 218 (2018) 593-601]&gt;.</t>
+  </si>
+  <si>
+    <t>Journal of Environmental Management</t>
+  </si>
+  <si>
+    <t>10.1016/j.jenvman.2018.05.020</t>
+  </si>
+  <si>
+    <t>Chiti Tommaso</t>
+  </si>
+  <si>
+    <t>Department for Innovation in Biological, Agro-food and Forest Systems (DIBAF), University of Tuscia, Via San C. De Lellis snc, 01100, Viterbo, Italy; Foundation Euro-Mediterranean Center on Climate Change (CMCC), Viterbo, Italy. Electronic address: tommaso.chiti@unitus.it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tommaso.chiti@unitus.it.</t>
+  </si>
+  <si>
+    <t>Blasi Emanuele</t>
+  </si>
+  <si>
+    <t>Department for Innovation in Biological, Agro-food and Forest Systems (DIBAF), University of Tuscia, Via San C. De Lellis snc, 01100, Viterbo, Italy.</t>
+  </si>
+  <si>
+    <t>Pellis Guido</t>
+  </si>
+  <si>
+    <t>Foundation Euro-Mediterranean Center on Climate Change (CMCC), Viterbo, Italy.</t>
+  </si>
+  <si>
+    <t>Perugini Lucia</t>
+  </si>
+  <si>
+    <t>Chiriacò Maria Vincenza</t>
+  </si>
+  <si>
+    <t>Valentini Riccardo</t>
+  </si>
+  <si>
+    <t>Department for Innovation in Biological, Agro-food and Forest Systems (DIBAF), University of Tuscia, Via San C. De Lellis snc, 01100, Viterbo, Italy; Foundation Euro-Mediterranean Center on Climate Change (CMCC), Viterbo, Italy; RUDN University, Moscow, Russia.</t>
+  </si>
+  <si>
+    <t>https://europepmc.org/abstract/MED/29981519;jsessionid=210470BC967ED6897DBA0B04239E8DD2</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Catchment response to climate and land use changes in the Upper Blue Nile sub-basins, Ethiopia.</t>
+  </si>
+  <si>
+    <t>The Science of the Total Environment</t>
+  </si>
+  <si>
+    <t>10.1016/j.scitotenv.2018.06.198</t>
+  </si>
+  <si>
+    <t>Tekalegn Ayele Woldesenbet</t>
+  </si>
+  <si>
+    <t>Institute for Technology and Resources Management in the Tropics and Subtropics (ITT), Technology Arts Sciences TH Köln, Cologne, Germany; Fakultät für Physik und Geowissenschaften, Institut für Geographie, Universität Leipzig, Leipzig, Germany. Electronic address: tekalegnay@yahoo.com.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tekalegnay@yahoo.com.</t>
+  </si>
+  <si>
+    <t>Nadir Ahmed Elagib</t>
+  </si>
+  <si>
+    <t>Institute for Technology and Resources Management in the Tropics and Subtropics (ITT), Technology Arts Sciences TH Köln, Cologne, Germany.</t>
+  </si>
+  <si>
+    <t>Lars Ribbe</t>
+  </si>
+  <si>
+    <t>Jürgen Heinrich</t>
+  </si>
+  <si>
+    <t>Fakultät für Physik und Geowissenschaften, Institut für Geographie, Universität Leipzig, Leipzig, Germany.</t>
+  </si>
+  <si>
+    <t>https://europepmc.org/abstract/MED/29977024;jsessionid=210470BC967ED6897DBA0B04239E8DD2</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Effects of climate and potential policy changes on heating degree days in current heating areas of China.</t>
+  </si>
+  <si>
+    <t>10.1038/s41598-018-28411-z</t>
+  </si>
+  <si>
+    <t>Ying Shi</t>
+  </si>
+  <si>
+    <t>National Climate Center, China Meteorological Administration, Zhongguancun Nandajie 46, Haidian District, Beijing, 100081, China. shiying@cma.gov.cn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> shiying@cma.gov.cn.</t>
+  </si>
+  <si>
+    <t>Guiling Wang</t>
+  </si>
+  <si>
+    <t>University of Connecticut</t>
+  </si>
+  <si>
+    <t>Xuejie Gao</t>
+  </si>
+  <si>
+    <t>Climate Change Research Center, Institute of Atmospheric Sciences, Chinese Academy of Sciences, Huayanli 40, Chaoyang District, Beijing, 100029, China.</t>
+  </si>
+  <si>
+    <t>Ying Xu</t>
+  </si>
+  <si>
+    <t>National Climate Center, China Meteorological Administration, Zhongguancun Nandajie 46, Haidian District, Beijing, 100081, China.</t>
+  </si>
+  <si>
+    <t>https://europepmc.org/abstract/MED/29874263;jsessionid=210470BC967ED6897DBA0B04239E8DD2</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Spatiotemporal variation of the association between climate dynamics and HFRS outbreaks in Eastern China during 2005-2016 and its geographic determinants.</t>
+  </si>
+  <si>
+    <t>PLoS Neglected Tropical Diseases</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pntd.0006554</t>
+  </si>
+  <si>
+    <t>Junyu He</t>
+  </si>
+  <si>
+    <t>San Diego State University</t>
+  </si>
+  <si>
+    <t>George Christakos</t>
+  </si>
+  <si>
+    <t>Jiaping Wu</t>
+  </si>
+  <si>
+    <t>Ocean College, Zhejiang University, Zhoushan, China.</t>
+  </si>
+  <si>
+    <t>Bernard Cazelles</t>
+  </si>
+  <si>
+    <t>Institute de Biologie de I'Ecole Normale Superieure UMR 8197, Eco-Evolutionary Mathematics, Ecole Normal Superieure, Paris, France.</t>
+  </si>
+  <si>
+    <t>Quan Qian</t>
+  </si>
+  <si>
+    <t>Center for Disease Surveillance of PLA, Institute of Disease Control and Prevention of PLA, Beijing, China.</t>
+  </si>
+  <si>
+    <t>Di Mu</t>
+  </si>
+  <si>
+    <t>Division of Infectious Diseases, Key Laboratory of Surveillance and Early-warning on Infectious Disease, Chinese Center for Disease Control and Prevention, Beijing, China.</t>
+  </si>
+  <si>
+    <t>Yong Wang</t>
+  </si>
+  <si>
+    <t>Wenwu Yin</t>
+  </si>
+  <si>
+    <t>Wenyi Zhang</t>
+  </si>
+  <si>
+    <t>https://europepmc.org/abstract/MED/29961415;jsessionid=210470BC967ED6897DBA0B04239E8DD2</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Toward Surmounting the Psychological Barriers to Climate Policy-Appreciating Contexts and Acknowledging Challenges: A Reply to Weber (2018).</t>
+  </si>
+  <si>
+    <t>Perspectives on Psychological Science : a Journal of the Association for Psychological Science</t>
+  </si>
+  <si>
+    <t>10.1177/1745691618774535</t>
+  </si>
+  <si>
+    <t>LEAF VAN BOVEN</t>
+  </si>
+  <si>
+    <t>University of Colorado Boulder</t>
+  </si>
+  <si>
+    <t>Phillip J Ehret</t>
+  </si>
+  <si>
+    <t>2 Department of Psychological and Brain Sciences, University of California, Santa Barbara.</t>
+  </si>
+  <si>
+    <t>David K Sherman</t>
+  </si>
+  <si>
+    <t>https://europepmc.org/abstract/MED/29912888;jsessionid=210470BC967ED6897DBA0B04239E8DD2</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Increasing belief but issue fatigue: Changes in Australian Household Climate Change Segments between 2011 and 2016.</t>
+  </si>
+  <si>
+    <t>PloS one</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0197988</t>
+  </si>
+  <si>
+    <t>Mark Morrison</t>
+  </si>
+  <si>
+    <t>Faculty of Business, Justice and Behavioural Sciences, Charles Sturt University, Bathurst, Australia.</t>
+  </si>
+  <si>
+    <t>Kevin Parton</t>
+  </si>
+  <si>
+    <t>Donald W Hine</t>
+  </si>
+  <si>
+    <t>School of Behavioural, Cognitive and Social Sciences, University of New England, Armidale, Australia.</t>
   </si>
 </sst>
 </file>
@@ -448,7 +1003,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -547,75 +1102,1448 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="F8" t="s">
+      <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
       <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
         <v>25</v>
       </c>
-      <c r="G9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G10" t="s">
         <v>21</v>
       </c>
       <c r="H10" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="F11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G11" t="s">
         <v>21</v>
       </c>
       <c r="H11" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="F12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" t="s">
-        <v>23</v>
+      <c r="A12" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>23</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="F15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="F16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="F17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="F18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="F22" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="F23" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="F24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="F25" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="F29" t="s">
+        <v>70</v>
+      </c>
+      <c r="G29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="F30" t="s">
+        <v>72</v>
+      </c>
+      <c r="G30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="F31" t="s">
+        <v>74</v>
+      </c>
+      <c r="G31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="F32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="F33" t="s">
+        <v>78</v>
+      </c>
+      <c r="G33" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="F34" t="s">
+        <v>80</v>
+      </c>
+      <c r="G34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" t="s">
+        <v>85</v>
+      </c>
+      <c r="E37" t="s">
+        <v>86</v>
+      </c>
+      <c r="F37" t="s">
+        <v>87</v>
+      </c>
+      <c r="G37" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="F38" t="s">
+        <v>89</v>
+      </c>
+      <c r="G38" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="F39" t="s">
+        <v>90</v>
+      </c>
+      <c r="G39" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="F40" t="s">
+        <v>91</v>
+      </c>
+      <c r="G40" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="F41" t="s">
+        <v>93</v>
+      </c>
+      <c r="G41" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="F42" t="s">
+        <v>95</v>
+      </c>
+      <c r="G42" t="s">
+        <v>21</v>
+      </c>
+      <c r="H42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="F43" t="s">
+        <v>96</v>
+      </c>
+      <c r="G43" t="s">
+        <v>21</v>
+      </c>
+      <c r="H43" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" t="s">
+        <v>100</v>
+      </c>
+      <c r="D46" t="s">
+        <v>100</v>
+      </c>
+      <c r="E46" t="s">
+        <v>101</v>
+      </c>
+      <c r="F46" t="s">
+        <v>70</v>
+      </c>
+      <c r="G46" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="F47" t="s">
+        <v>102</v>
+      </c>
+      <c r="G47" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="F48" t="s">
+        <v>104</v>
+      </c>
+      <c r="G48" t="s">
+        <v>21</v>
+      </c>
+      <c r="H48" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="F49" t="s">
+        <v>106</v>
+      </c>
+      <c r="G49" t="s">
+        <v>21</v>
+      </c>
+      <c r="H49" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" t="s">
+        <v>111</v>
+      </c>
+      <c r="D52" t="s">
+        <v>111</v>
+      </c>
+      <c r="E52" t="s">
+        <v>112</v>
+      </c>
+      <c r="F52" t="s">
+        <v>113</v>
+      </c>
+      <c r="G52" t="s">
+        <v>21</v>
+      </c>
+      <c r="H52" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="F53" t="s">
+        <v>115</v>
+      </c>
+      <c r="G53" t="s">
+        <v>21</v>
+      </c>
+      <c r="H53" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="F54" t="s">
+        <v>116</v>
+      </c>
+      <c r="G54" t="s">
+        <v>21</v>
+      </c>
+      <c r="H54" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="F55" t="s">
+        <v>117</v>
+      </c>
+      <c r="G55" t="s">
+        <v>21</v>
+      </c>
+      <c r="H55" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="F56" t="s">
+        <v>118</v>
+      </c>
+      <c r="G56" t="s">
+        <v>21</v>
+      </c>
+      <c r="H56" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>13</v>
+      </c>
+      <c r="H58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" t="s">
+        <v>122</v>
+      </c>
+      <c r="D59" t="s">
+        <v>122</v>
+      </c>
+      <c r="E59" t="s">
+        <v>123</v>
+      </c>
+      <c r="F59" t="s">
+        <v>124</v>
+      </c>
+      <c r="G59" t="s">
+        <v>21</v>
+      </c>
+      <c r="H59" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="F60" t="s">
+        <v>126</v>
+      </c>
+      <c r="G60" t="s">
+        <v>21</v>
+      </c>
+      <c r="H60" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="F61" t="s">
+        <v>128</v>
+      </c>
+      <c r="G61" t="s">
+        <v>21</v>
+      </c>
+      <c r="H61" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="F62" t="s">
+        <v>130</v>
+      </c>
+      <c r="G62" t="s">
+        <v>21</v>
+      </c>
+      <c r="H62" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="F63" t="s">
+        <v>131</v>
+      </c>
+      <c r="G63" t="s">
+        <v>21</v>
+      </c>
+      <c r="H63" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="F64" t="s">
+        <v>132</v>
+      </c>
+      <c r="G64" t="s">
+        <v>21</v>
+      </c>
+      <c r="H64" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="F65" t="s">
+        <v>133</v>
+      </c>
+      <c r="G65" t="s">
+        <v>21</v>
+      </c>
+      <c r="H65" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" t="s">
+        <v>13</v>
+      </c>
+      <c r="H67" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" t="s">
+        <v>135</v>
+      </c>
+      <c r="B68" t="s">
+        <v>136</v>
+      </c>
+      <c r="C68" t="s">
+        <v>137</v>
+      </c>
+      <c r="D68" t="s">
+        <v>137</v>
+      </c>
+      <c r="E68" t="s">
+        <v>138</v>
+      </c>
+      <c r="F68" t="s">
+        <v>139</v>
+      </c>
+      <c r="G68" t="s">
+        <v>141</v>
+      </c>
+      <c r="H68" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="F69" t="s">
+        <v>142</v>
+      </c>
+      <c r="G69" t="s">
+        <v>21</v>
+      </c>
+      <c r="H69" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="F70" t="s">
+        <v>144</v>
+      </c>
+      <c r="G70" t="s">
+        <v>21</v>
+      </c>
+      <c r="H70" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="F71" t="s">
+        <v>146</v>
+      </c>
+      <c r="G71" t="s">
+        <v>21</v>
+      </c>
+      <c r="H71" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="F72" t="s">
+        <v>147</v>
+      </c>
+      <c r="G72" t="s">
+        <v>21</v>
+      </c>
+      <c r="H72" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="F73" t="s">
+        <v>148</v>
+      </c>
+      <c r="G73" t="s">
+        <v>21</v>
+      </c>
+      <c r="H73" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" t="s">
+        <v>13</v>
+      </c>
+      <c r="H75" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" t="s">
+        <v>151</v>
+      </c>
+      <c r="B76" t="s">
+        <v>152</v>
+      </c>
+      <c r="C76" t="s">
+        <v>153</v>
+      </c>
+      <c r="D76" t="s">
+        <v>153</v>
+      </c>
+      <c r="E76" t="s">
+        <v>154</v>
+      </c>
+      <c r="F76" t="s">
+        <v>155</v>
+      </c>
+      <c r="G76" t="s">
+        <v>157</v>
+      </c>
+      <c r="H76" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="F77" t="s">
+        <v>158</v>
+      </c>
+      <c r="G77" t="s">
+        <v>21</v>
+      </c>
+      <c r="H77" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="F78" t="s">
+        <v>160</v>
+      </c>
+      <c r="G78" t="s">
+        <v>21</v>
+      </c>
+      <c r="H78" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="F79" t="s">
+        <v>161</v>
+      </c>
+      <c r="G79" t="s">
+        <v>21</v>
+      </c>
+      <c r="H79" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81" t="s">
+        <v>13</v>
+      </c>
+      <c r="H81" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" t="s">
+        <v>164</v>
+      </c>
+      <c r="B82" t="s">
+        <v>165</v>
+      </c>
+      <c r="C82" t="s">
+        <v>66</v>
+      </c>
+      <c r="D82" t="s">
+        <v>66</v>
+      </c>
+      <c r="E82" t="s">
+        <v>166</v>
+      </c>
+      <c r="F82" t="s">
+        <v>167</v>
+      </c>
+      <c r="G82" t="s">
+        <v>169</v>
+      </c>
+      <c r="H82" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="F83" t="s">
+        <v>170</v>
+      </c>
+      <c r="G83" t="s">
+        <v>21</v>
+      </c>
+      <c r="H83" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="F84" t="s">
+        <v>172</v>
+      </c>
+      <c r="G84" t="s">
+        <v>21</v>
+      </c>
+      <c r="H84" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="F85" t="s">
+        <v>174</v>
+      </c>
+      <c r="G85" t="s">
+        <v>21</v>
+      </c>
+      <c r="H85" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" t="s">
+        <v>12</v>
+      </c>
+      <c r="G87" t="s">
+        <v>13</v>
+      </c>
+      <c r="H87" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" t="s">
+        <v>177</v>
+      </c>
+      <c r="B88" t="s">
+        <v>178</v>
+      </c>
+      <c r="C88" t="s">
+        <v>179</v>
+      </c>
+      <c r="D88" t="s">
+        <v>179</v>
+      </c>
+      <c r="E88" t="s">
+        <v>180</v>
+      </c>
+      <c r="F88" t="s">
+        <v>181</v>
+      </c>
+      <c r="G88" t="s">
+        <v>21</v>
+      </c>
+      <c r="H88" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="F89" t="s">
+        <v>183</v>
+      </c>
+      <c r="G89" t="s">
+        <v>21</v>
+      </c>
+      <c r="H89" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="F90" t="s">
+        <v>184</v>
+      </c>
+      <c r="G90" t="s">
+        <v>21</v>
+      </c>
+      <c r="H90" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="F91" t="s">
+        <v>186</v>
+      </c>
+      <c r="G91" t="s">
+        <v>21</v>
+      </c>
+      <c r="H91" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="F92" t="s">
+        <v>188</v>
+      </c>
+      <c r="G92" t="s">
+        <v>21</v>
+      </c>
+      <c r="H92" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="F93" t="s">
+        <v>190</v>
+      </c>
+      <c r="G93" t="s">
+        <v>21</v>
+      </c>
+      <c r="H93" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="F94" t="s">
+        <v>192</v>
+      </c>
+      <c r="G94" t="s">
+        <v>21</v>
+      </c>
+      <c r="H94" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="F95" t="s">
+        <v>193</v>
+      </c>
+      <c r="G95" t="s">
+        <v>21</v>
+      </c>
+      <c r="H95" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="F96" t="s">
+        <v>194</v>
+      </c>
+      <c r="G96" t="s">
+        <v>21</v>
+      </c>
+      <c r="H96" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" t="s">
+        <v>7</v>
+      </c>
+      <c r="B98" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" t="s">
+        <v>12</v>
+      </c>
+      <c r="G98" t="s">
+        <v>13</v>
+      </c>
+      <c r="H98" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" t="s">
+        <v>196</v>
+      </c>
+      <c r="B99" t="s">
+        <v>197</v>
+      </c>
+      <c r="C99" t="s">
+        <v>198</v>
+      </c>
+      <c r="D99" t="s">
+        <v>198</v>
+      </c>
+      <c r="E99" t="s">
+        <v>199</v>
+      </c>
+      <c r="F99" t="s">
+        <v>200</v>
+      </c>
+      <c r="G99" t="s">
+        <v>21</v>
+      </c>
+      <c r="H99" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="F100" t="s">
+        <v>202</v>
+      </c>
+      <c r="G100" t="s">
+        <v>21</v>
+      </c>
+      <c r="H100" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="F101" t="s">
+        <v>204</v>
+      </c>
+      <c r="G101" t="s">
+        <v>21</v>
+      </c>
+      <c r="H101" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" t="s">
+        <v>7</v>
+      </c>
+      <c r="B103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103" t="s">
+        <v>11</v>
+      </c>
+      <c r="F103" t="s">
+        <v>12</v>
+      </c>
+      <c r="G103" t="s">
+        <v>13</v>
+      </c>
+      <c r="H103" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" t="s">
+        <v>206</v>
+      </c>
+      <c r="B104" t="s">
+        <v>207</v>
+      </c>
+      <c r="C104" t="s">
+        <v>208</v>
+      </c>
+      <c r="D104" t="s">
+        <v>208</v>
+      </c>
+      <c r="E104" t="s">
+        <v>209</v>
+      </c>
+      <c r="F104" t="s">
+        <v>210</v>
+      </c>
+      <c r="G104" t="s">
+        <v>21</v>
+      </c>
+      <c r="H104" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="F105" t="s">
+        <v>212</v>
+      </c>
+      <c r="G105" t="s">
+        <v>21</v>
+      </c>
+      <c r="H105" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="F106" t="s">
+        <v>213</v>
+      </c>
+      <c r="G106" t="s">
+        <v>21</v>
+      </c>
+      <c r="H106" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="A4" r:id="rId2"/>
+    <hyperlink ref="A8" r:id="rId3"/>
+    <hyperlink ref="A12" r:id="rId4"/>
+    <hyperlink ref="A19" r:id="rId5"/>
+    <hyperlink ref="A26" r:id="rId6"/>
+    <hyperlink ref="A35" r:id="rId7"/>
+    <hyperlink ref="A44" r:id="rId8"/>
+    <hyperlink ref="A50" r:id="rId9"/>
+    <hyperlink ref="A57" r:id="rId10"/>
+    <hyperlink ref="A66" r:id="rId11"/>
+    <hyperlink ref="A74" r:id="rId12"/>
+    <hyperlink ref="A80" r:id="rId13"/>
+    <hyperlink ref="A86" r:id="rId14"/>
+    <hyperlink ref="A97" r:id="rId15"/>
+    <hyperlink ref="A102" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
